--- a/data/pca/factorExposure/factorExposure_2015-07-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02071557862505704</v>
+        <v>0.01269455959510023</v>
       </c>
       <c r="C2">
-        <v>-0.02787685263843162</v>
+        <v>-0.05228010380379067</v>
       </c>
       <c r="D2">
-        <v>-0.1314269367418036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1473290516436817</v>
+      </c>
+      <c r="E2">
+        <v>-0.006359766762052875</v>
+      </c>
+      <c r="F2">
+        <v>-0.01402331347345256</v>
+      </c>
+      <c r="G2">
+        <v>0.1269483426943838</v>
+      </c>
+      <c r="H2">
+        <v>-0.06604469998574353</v>
+      </c>
+      <c r="I2">
+        <v>-0.03204286193951304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.009918134584837372</v>
+        <v>-0.01108272287067709</v>
       </c>
       <c r="C3">
-        <v>-0.02570511014177001</v>
+        <v>-0.01359984747026048</v>
       </c>
       <c r="D3">
-        <v>-0.01179756819370827</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01118796359708044</v>
+      </c>
+      <c r="E3">
+        <v>0.01634867647952922</v>
+      </c>
+      <c r="F3">
+        <v>0.01264866732256987</v>
+      </c>
+      <c r="G3">
+        <v>-0.007393553440061378</v>
+      </c>
+      <c r="H3">
+        <v>-0.003275845697207709</v>
+      </c>
+      <c r="I3">
+        <v>0.0158040157587629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03761722809941233</v>
+        <v>0.02007395926903398</v>
       </c>
       <c r="C4">
-        <v>-0.07574808408354669</v>
+        <v>-0.09899478795866412</v>
       </c>
       <c r="D4">
-        <v>-0.1306945482421903</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1411383194810203</v>
+      </c>
+      <c r="E4">
+        <v>0.01582388908142732</v>
+      </c>
+      <c r="F4">
+        <v>-0.0863721884399677</v>
+      </c>
+      <c r="G4">
+        <v>0.005062446339656241</v>
+      </c>
+      <c r="H4">
+        <v>-0.04158189693289729</v>
+      </c>
+      <c r="I4">
+        <v>-0.03969482345682605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02675653181920724</v>
+        <v>0.03035595390916016</v>
       </c>
       <c r="C6">
-        <v>-0.01373738799701676</v>
+        <v>-0.02920471154501403</v>
       </c>
       <c r="D6">
-        <v>-0.1464587501245549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1284254873560262</v>
+      </c>
+      <c r="E6">
+        <v>-0.04247347648684472</v>
+      </c>
+      <c r="F6">
+        <v>-0.05253194085850621</v>
+      </c>
+      <c r="G6">
+        <v>0.01702892569959956</v>
+      </c>
+      <c r="H6">
+        <v>-0.05033319058154582</v>
+      </c>
+      <c r="I6">
+        <v>0.01785373528904784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007718404951602542</v>
+        <v>0.01061069961493316</v>
       </c>
       <c r="C7">
-        <v>-0.02355445104633797</v>
+        <v>-0.03354554636527256</v>
       </c>
       <c r="D7">
-        <v>-0.1143221079832326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.1035272787281984</v>
+      </c>
+      <c r="E7">
+        <v>-0.04823210690271953</v>
+      </c>
+      <c r="F7">
+        <v>-0.006871064587727</v>
+      </c>
+      <c r="G7">
+        <v>-0.000326516911924417</v>
+      </c>
+      <c r="H7">
+        <v>-0.07423344383827829</v>
+      </c>
+      <c r="I7">
+        <v>0.02087626168324733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0006520277647458455</v>
+        <v>-0.006832257478639243</v>
       </c>
       <c r="C8">
-        <v>-0.02662846417716197</v>
+        <v>-0.03359436057529622</v>
       </c>
       <c r="D8">
-        <v>-0.08380157040485155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.083540432381987</v>
+      </c>
+      <c r="E8">
+        <v>-0.01950312982638025</v>
+      </c>
+      <c r="F8">
+        <v>-0.0411148417987844</v>
+      </c>
+      <c r="G8">
+        <v>0.07061972823266284</v>
+      </c>
+      <c r="H8">
+        <v>-0.001918367670639388</v>
+      </c>
+      <c r="I8">
+        <v>0.03660169967431439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0326594267437104</v>
+        <v>0.01621881790577338</v>
       </c>
       <c r="C9">
-        <v>-0.06581878662024034</v>
+        <v>-0.08370338999567001</v>
       </c>
       <c r="D9">
-        <v>-0.1348046730439653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.123593376131912</v>
+      </c>
+      <c r="E9">
+        <v>0.004431083840787505</v>
+      </c>
+      <c r="F9">
+        <v>-0.05779311822675549</v>
+      </c>
+      <c r="G9">
+        <v>-0.01295870445180546</v>
+      </c>
+      <c r="H9">
+        <v>-0.05590901361207403</v>
+      </c>
+      <c r="I9">
+        <v>-0.004726364998376232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1619992180336488</v>
+        <v>0.2242743267394915</v>
       </c>
       <c r="C10">
-        <v>0.1724617265406762</v>
+        <v>0.1085255721408026</v>
       </c>
       <c r="D10">
-        <v>-0.01744387298381636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>5.818430853477124e-05</v>
+      </c>
+      <c r="E10">
+        <v>0.02250922151089122</v>
+      </c>
+      <c r="F10">
+        <v>-0.04027026887511237</v>
+      </c>
+      <c r="G10">
+        <v>-0.004338951435768089</v>
+      </c>
+      <c r="H10">
+        <v>0.05895754243126551</v>
+      </c>
+      <c r="I10">
+        <v>0.1237861594368314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0208908895221789</v>
+        <v>0.01056925022833869</v>
       </c>
       <c r="C11">
-        <v>-0.04240082053221234</v>
+        <v>-0.05231728709735645</v>
       </c>
       <c r="D11">
-        <v>-0.05244112536065147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04569738607747358</v>
+      </c>
+      <c r="E11">
+        <v>-0.01864858814485553</v>
+      </c>
+      <c r="F11">
+        <v>0.01037335622810935</v>
+      </c>
+      <c r="G11">
+        <v>-0.003494269241098637</v>
+      </c>
+      <c r="H11">
+        <v>-0.04904083031920129</v>
+      </c>
+      <c r="I11">
+        <v>-0.03293684390630894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02331149857779191</v>
+        <v>0.01229707941397894</v>
       </c>
       <c r="C12">
-        <v>-0.04170748556058688</v>
+        <v>-0.04961103495994933</v>
       </c>
       <c r="D12">
-        <v>-0.06605529634350955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04998260752962042</v>
+      </c>
+      <c r="E12">
+        <v>-0.01493692313172532</v>
+      </c>
+      <c r="F12">
+        <v>0.01462427946462596</v>
+      </c>
+      <c r="G12">
+        <v>-0.01795592815387798</v>
+      </c>
+      <c r="H12">
+        <v>-0.07378490150981158</v>
+      </c>
+      <c r="I12">
+        <v>-0.01714940031095249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.006348860305554853</v>
+        <v>0.004701301512618436</v>
       </c>
       <c r="C13">
-        <v>-0.02927127937533068</v>
+        <v>-0.04527236244638019</v>
       </c>
       <c r="D13">
-        <v>-0.1554941503919061</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1520763241067956</v>
+      </c>
+      <c r="E13">
+        <v>-0.03386262351471312</v>
+      </c>
+      <c r="F13">
+        <v>-0.03159094938117582</v>
+      </c>
+      <c r="G13">
+        <v>0.03916763839682286</v>
+      </c>
+      <c r="H13">
+        <v>-0.06884318958605029</v>
+      </c>
+      <c r="I13">
+        <v>0.07933305935759222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.001492579907252011</v>
+        <v>0.002693146861195352</v>
       </c>
       <c r="C14">
-        <v>-0.0200075276793265</v>
+        <v>-0.02901644990028361</v>
       </c>
       <c r="D14">
-        <v>-0.1092229952810177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1041012440689659</v>
+      </c>
+      <c r="E14">
+        <v>-0.02787197497616156</v>
+      </c>
+      <c r="F14">
+        <v>-0.02383504601800965</v>
+      </c>
+      <c r="G14">
+        <v>0.02139843555563203</v>
+      </c>
+      <c r="H14">
+        <v>-0.1184107070343629</v>
+      </c>
+      <c r="I14">
+        <v>0.02287751787855688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001243293511018474</v>
+        <v>-0.0005491685161614309</v>
       </c>
       <c r="C15">
-        <v>-0.01045277153237498</v>
+        <v>-0.01922319062679426</v>
       </c>
       <c r="D15">
-        <v>-0.02429589276362649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05109473704655142</v>
+      </c>
+      <c r="E15">
+        <v>-0.005385323380683757</v>
+      </c>
+      <c r="F15">
+        <v>-0.002087101361617447</v>
+      </c>
+      <c r="G15">
+        <v>0.01983430112258351</v>
+      </c>
+      <c r="H15">
+        <v>-0.01534266616136645</v>
+      </c>
+      <c r="I15">
+        <v>-0.02149278640129838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02100059673734056</v>
+        <v>0.0113348229281187</v>
       </c>
       <c r="C16">
-        <v>-0.03964598790860525</v>
+        <v>-0.04801603349731107</v>
       </c>
       <c r="D16">
-        <v>-0.06033555903079219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04657322855461153</v>
+      </c>
+      <c r="E16">
+        <v>-0.01898130448542383</v>
+      </c>
+      <c r="F16">
+        <v>0.006732607030705235</v>
+      </c>
+      <c r="G16">
+        <v>-0.01312656558219695</v>
+      </c>
+      <c r="H16">
+        <v>-0.0533489116367182</v>
+      </c>
+      <c r="I16">
+        <v>-0.02798206493224006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.008399888997747566</v>
+        <v>0.001701551677412174</v>
       </c>
       <c r="C19">
-        <v>-0.02644310197096934</v>
+        <v>-0.02422208497327238</v>
       </c>
       <c r="D19">
-        <v>-0.1310658136697198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08280444205363868</v>
+      </c>
+      <c r="E19">
+        <v>0.01971583085912332</v>
+      </c>
+      <c r="F19">
+        <v>-0.0083683639586916</v>
+      </c>
+      <c r="G19">
+        <v>0.02231375826574862</v>
+      </c>
+      <c r="H19">
+        <v>-0.07755062310942307</v>
+      </c>
+      <c r="I19">
+        <v>0.04285479298661473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00467366023260009</v>
+        <v>0.004600142579532686</v>
       </c>
       <c r="C20">
-        <v>-0.02736609668003774</v>
+        <v>-0.03908876369281707</v>
       </c>
       <c r="D20">
-        <v>-0.09517052459072919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09850551150128836</v>
+      </c>
+      <c r="E20">
+        <v>-0.003978003767958849</v>
+      </c>
+      <c r="F20">
+        <v>-0.02738954501433365</v>
+      </c>
+      <c r="G20">
+        <v>0.005969995414390123</v>
+      </c>
+      <c r="H20">
+        <v>-0.0560660255515967</v>
+      </c>
+      <c r="I20">
+        <v>-0.00097357864572998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007574427850560592</v>
+        <v>0.003814565936550352</v>
       </c>
       <c r="C21">
-        <v>-0.03447453804880878</v>
+        <v>-0.04275637303950448</v>
       </c>
       <c r="D21">
-        <v>-0.1737158247579948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1394519755388809</v>
+      </c>
+      <c r="E21">
+        <v>0.003987357366446021</v>
+      </c>
+      <c r="F21">
+        <v>-0.07410653032728071</v>
+      </c>
+      <c r="G21">
+        <v>0.03027241691079811</v>
+      </c>
+      <c r="H21">
+        <v>-0.1737906480138328</v>
+      </c>
+      <c r="I21">
+        <v>0.1199907342560653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.0002753856822573464</v>
+        <v>-0.009090939380658894</v>
       </c>
       <c r="C22">
-        <v>-0.06048774749552598</v>
+        <v>-0.07952019728949238</v>
       </c>
       <c r="D22">
-        <v>-0.2009292281648887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2520582855263949</v>
+      </c>
+      <c r="E22">
+        <v>-0.04376195505303455</v>
+      </c>
+      <c r="F22">
+        <v>-0.02458524306860785</v>
+      </c>
+      <c r="G22">
+        <v>0.3158325857666235</v>
+      </c>
+      <c r="H22">
+        <v>0.4243283580102324</v>
+      </c>
+      <c r="I22">
+        <v>-0.1200847626178607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-5.313370427366811e-05</v>
+        <v>-0.008663668581233209</v>
       </c>
       <c r="C23">
-        <v>-0.06097063277436243</v>
+        <v>-0.08043865224053728</v>
       </c>
       <c r="D23">
-        <v>-0.2005052286742263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2526836822509742</v>
+      </c>
+      <c r="E23">
+        <v>-0.04072076690290945</v>
+      </c>
+      <c r="F23">
+        <v>-0.02388287540842654</v>
+      </c>
+      <c r="G23">
+        <v>0.3144812981317565</v>
+      </c>
+      <c r="H23">
+        <v>0.424656234239356</v>
+      </c>
+      <c r="I23">
+        <v>-0.1217477737910796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02699133414298454</v>
+        <v>0.01151252923037678</v>
       </c>
       <c r="C24">
-        <v>-0.05713867189375108</v>
+        <v>-0.06466879785548359</v>
       </c>
       <c r="D24">
-        <v>-0.07224164316676478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05492927041453755</v>
+      </c>
+      <c r="E24">
+        <v>-0.02230410680621192</v>
+      </c>
+      <c r="F24">
+        <v>0.004196732276971925</v>
+      </c>
+      <c r="G24">
+        <v>-0.004891843778262857</v>
+      </c>
+      <c r="H24">
+        <v>-0.07691884628628531</v>
+      </c>
+      <c r="I24">
+        <v>-0.02856252498298533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03013394656690123</v>
+        <v>0.01563480727976092</v>
       </c>
       <c r="C25">
-        <v>-0.04852266063189761</v>
+        <v>-0.06004605866429819</v>
       </c>
       <c r="D25">
-        <v>-0.06527061844030295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0522976789498649</v>
+      </c>
+      <c r="E25">
+        <v>-0.009475855665481363</v>
+      </c>
+      <c r="F25">
+        <v>0.00657545666259587</v>
+      </c>
+      <c r="G25">
+        <v>-0.01218589164288279</v>
+      </c>
+      <c r="H25">
+        <v>-0.04684680545758577</v>
+      </c>
+      <c r="I25">
+        <v>-0.0175539625276726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007206734632631855</v>
+        <v>0.008237886617273499</v>
       </c>
       <c r="C26">
-        <v>-0.01705544268483066</v>
+        <v>-0.02592580472417702</v>
       </c>
       <c r="D26">
-        <v>-0.08294732338377984</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07068287600002141</v>
+      </c>
+      <c r="E26">
+        <v>-0.02190785838683535</v>
+      </c>
+      <c r="F26">
+        <v>-0.02332953609446372</v>
+      </c>
+      <c r="G26">
+        <v>0.00280375312255317</v>
+      </c>
+      <c r="H26">
+        <v>-0.08047190962569756</v>
+      </c>
+      <c r="I26">
+        <v>0.04964326350763711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2447587319243287</v>
+        <v>0.3157356850982952</v>
       </c>
       <c r="C28">
-        <v>0.2125811873533309</v>
+        <v>0.1198000085962235</v>
       </c>
       <c r="D28">
-        <v>-0.02246207309699243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.008618825821385241</v>
+      </c>
+      <c r="E28">
+        <v>0.04892763417764636</v>
+      </c>
+      <c r="F28">
+        <v>-0.03916645142726515</v>
+      </c>
+      <c r="G28">
+        <v>0.01816124306447697</v>
+      </c>
+      <c r="H28">
+        <v>0.03043614096406108</v>
+      </c>
+      <c r="I28">
+        <v>0.1352199740784697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0007476552090071845</v>
+        <v>0.001231661703741731</v>
       </c>
       <c r="C29">
-        <v>-0.02207970483728607</v>
+        <v>-0.0309869009061231</v>
       </c>
       <c r="D29">
-        <v>-0.1035443968259959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.09842747089609701</v>
+      </c>
+      <c r="E29">
+        <v>-0.03900120007434896</v>
+      </c>
+      <c r="F29">
+        <v>-0.02944342034502895</v>
+      </c>
+      <c r="G29">
+        <v>0.008385932868988285</v>
+      </c>
+      <c r="H29">
+        <v>-0.1201434188434457</v>
+      </c>
+      <c r="I29">
+        <v>0.02294159019643819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02369504164168021</v>
+        <v>0.01765824087744834</v>
       </c>
       <c r="C30">
-        <v>-0.06223164834852032</v>
+        <v>-0.08352244141291962</v>
       </c>
       <c r="D30">
-        <v>-0.1660098354417937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1632358070744062</v>
+      </c>
+      <c r="E30">
+        <v>-0.04209947117448059</v>
+      </c>
+      <c r="F30">
+        <v>-0.03250132559398661</v>
+      </c>
+      <c r="G30">
+        <v>0.02765924831643693</v>
+      </c>
+      <c r="H30">
+        <v>-0.04076051076295049</v>
+      </c>
+      <c r="I30">
+        <v>-0.06670807136981567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04393948912058137</v>
+        <v>0.01370505858317168</v>
       </c>
       <c r="C31">
-        <v>-0.08587440295067461</v>
+        <v>-0.09272512057441933</v>
       </c>
       <c r="D31">
-        <v>-0.07628809655680437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04496628377663522</v>
+      </c>
+      <c r="E31">
+        <v>-0.007475532502487754</v>
+      </c>
+      <c r="F31">
+        <v>-0.01495319193499126</v>
+      </c>
+      <c r="G31">
+        <v>0.01017591495507962</v>
+      </c>
+      <c r="H31">
+        <v>-0.04823929284887214</v>
+      </c>
+      <c r="I31">
+        <v>0.07945624352089997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01908339172833616</v>
+        <v>0.01135262954472336</v>
       </c>
       <c r="C32">
-        <v>-0.03808067389482209</v>
+        <v>-0.04537284101862198</v>
       </c>
       <c r="D32">
-        <v>-0.1072117172392432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1114945162137645</v>
+      </c>
+      <c r="E32">
+        <v>0.007990880068780026</v>
+      </c>
+      <c r="F32">
+        <v>-0.04382919504285169</v>
+      </c>
+      <c r="G32">
+        <v>0.03207143252367378</v>
+      </c>
+      <c r="H32">
+        <v>-0.02964843005887694</v>
+      </c>
+      <c r="I32">
+        <v>0.07500700073084668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0160753160340343</v>
+        <v>0.009569179078297461</v>
       </c>
       <c r="C33">
-        <v>-0.0433585779032394</v>
+        <v>-0.05709280535789905</v>
       </c>
       <c r="D33">
-        <v>-0.1533129506951074</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1308795935647636</v>
+      </c>
+      <c r="E33">
+        <v>-0.01073248735818078</v>
+      </c>
+      <c r="F33">
+        <v>-0.02815335253146805</v>
+      </c>
+      <c r="G33">
+        <v>0.01816346966356724</v>
+      </c>
+      <c r="H33">
+        <v>-0.07099508763856453</v>
+      </c>
+      <c r="I33">
+        <v>0.02147288114481139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02576750402449005</v>
+        <v>0.009807691951200409</v>
       </c>
       <c r="C34">
-        <v>-0.05720572121049364</v>
+        <v>-0.06139925706787159</v>
       </c>
       <c r="D34">
-        <v>-0.05137238140106715</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03315785734795254</v>
+      </c>
+      <c r="E34">
+        <v>-0.02805399750799188</v>
+      </c>
+      <c r="F34">
+        <v>0.03402165306092842</v>
+      </c>
+      <c r="G34">
+        <v>-0.005632925771238037</v>
+      </c>
+      <c r="H34">
+        <v>-0.06237558650495149</v>
+      </c>
+      <c r="I34">
+        <v>-0.00332010323377904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001363240440650436</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004580724342041501</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01483369144928509</v>
+      </c>
+      <c r="E35">
+        <v>-0.00342896820356969</v>
+      </c>
+      <c r="F35">
+        <v>-0.001399478762258408</v>
+      </c>
+      <c r="G35">
+        <v>-0.002305026452803366</v>
+      </c>
+      <c r="H35">
+        <v>-0.01166700846927159</v>
+      </c>
+      <c r="I35">
+        <v>-0.00519528913279353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.009545776108766526</v>
+        <v>0.01032486709360242</v>
       </c>
       <c r="C36">
-        <v>-0.007248123138250236</v>
+        <v>-0.02001828085302534</v>
       </c>
       <c r="D36">
-        <v>-0.09770210731504472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08092848519505386</v>
+      </c>
+      <c r="E36">
+        <v>-0.005435203650015317</v>
+      </c>
+      <c r="F36">
+        <v>-0.03570385433141374</v>
+      </c>
+      <c r="G36">
+        <v>0.007685197304569381</v>
+      </c>
+      <c r="H36">
+        <v>-0.062060564805477</v>
+      </c>
+      <c r="I36">
+        <v>0.03510797561374389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01129641465523215</v>
+        <v>0.01730953343157015</v>
       </c>
       <c r="C38">
-        <v>-0.006991534432353634</v>
+        <v>-0.01573673709477064</v>
       </c>
       <c r="D38">
-        <v>-0.09042957736816126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08433286131402053</v>
+      </c>
+      <c r="E38">
+        <v>0.01330655766969064</v>
+      </c>
+      <c r="F38">
+        <v>0.007681577984940793</v>
+      </c>
+      <c r="G38">
+        <v>0.02984689334917674</v>
+      </c>
+      <c r="H38">
+        <v>-0.05118997333449322</v>
+      </c>
+      <c r="I38">
+        <v>0.03992674826032147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02029619569524682</v>
+        <v>0.007933383615091332</v>
       </c>
       <c r="C39">
-        <v>-0.05822574818463065</v>
+        <v>-0.07520306350937714</v>
       </c>
       <c r="D39">
-        <v>-0.1186591625361863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1083379625618</v>
+      </c>
+      <c r="E39">
+        <v>-0.0470094108812809</v>
+      </c>
+      <c r="F39">
+        <v>0.004440390129911737</v>
+      </c>
+      <c r="G39">
+        <v>-0.005479471089556718</v>
+      </c>
+      <c r="H39">
+        <v>-0.103935836895894</v>
+      </c>
+      <c r="I39">
+        <v>-0.05901409270557772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01250737987747537</v>
+        <v>0.0123759579095823</v>
       </c>
       <c r="C40">
-        <v>-0.01870405318559471</v>
+        <v>-0.0262570306917101</v>
       </c>
       <c r="D40">
-        <v>-0.1137824431478764</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09350686417329575</v>
+      </c>
+      <c r="E40">
+        <v>-0.03680634093429408</v>
+      </c>
+      <c r="F40">
+        <v>0.02536347674746385</v>
+      </c>
+      <c r="G40">
+        <v>0.07598650283400965</v>
+      </c>
+      <c r="H40">
+        <v>-0.06653452293378799</v>
+      </c>
+      <c r="I40">
+        <v>0.0549763437268648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01412189818776227</v>
+        <v>0.01282533360127287</v>
       </c>
       <c r="C41">
-        <v>-0.009538568845932384</v>
+        <v>-0.01778743686000426</v>
       </c>
       <c r="D41">
-        <v>-0.06731590999688422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04693401225875514</v>
+      </c>
+      <c r="E41">
+        <v>0.02528407141680957</v>
+      </c>
+      <c r="F41">
+        <v>-0.02006854761813378</v>
+      </c>
+      <c r="G41">
+        <v>0.02506883607046187</v>
+      </c>
+      <c r="H41">
+        <v>-0.05087072700479759</v>
+      </c>
+      <c r="I41">
+        <v>0.05378877041701209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008485200010656783</v>
+        <v>0.006758114369082282</v>
       </c>
       <c r="C43">
-        <v>-0.01297457379810783</v>
+        <v>-0.01866550366573308</v>
       </c>
       <c r="D43">
-        <v>-0.0811686810543412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05901438330895024</v>
+      </c>
+      <c r="E43">
+        <v>0.009859496468905913</v>
+      </c>
+      <c r="F43">
+        <v>-0.01874480268838247</v>
+      </c>
+      <c r="G43">
+        <v>0.02805378181983741</v>
+      </c>
+      <c r="H43">
+        <v>-0.0771883806180448</v>
+      </c>
+      <c r="I43">
+        <v>0.04596890474038573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01499516799879091</v>
+        <v>0.010550846949318</v>
       </c>
       <c r="C44">
-        <v>-0.03073942710645169</v>
+        <v>-0.04710881449497589</v>
       </c>
       <c r="D44">
-        <v>-0.1124130215571505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1176415911250293</v>
+      </c>
+      <c r="E44">
+        <v>-0.01976362752121804</v>
+      </c>
+      <c r="F44">
+        <v>-0.02257229215565289</v>
+      </c>
+      <c r="G44">
+        <v>0.01998880356085617</v>
+      </c>
+      <c r="H44">
+        <v>-0.04052799024950055</v>
+      </c>
+      <c r="I44">
+        <v>-0.06791158240450469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01015918201343557</v>
+        <v>0.0007487198448071723</v>
       </c>
       <c r="C46">
-        <v>-0.03115031969318841</v>
+        <v>-0.04186704012491813</v>
       </c>
       <c r="D46">
-        <v>-0.1030457257917708</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08638832966562679</v>
+      </c>
+      <c r="E46">
+        <v>-0.02129439315679072</v>
+      </c>
+      <c r="F46">
+        <v>-0.02833526453134658</v>
+      </c>
+      <c r="G46">
+        <v>0.02610782083374828</v>
+      </c>
+      <c r="H46">
+        <v>-0.1321530504983265</v>
+      </c>
+      <c r="I46">
+        <v>0.03006585620477931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0831819121508435</v>
+        <v>0.03947851718838194</v>
       </c>
       <c r="C47">
-        <v>-0.107013185681475</v>
+        <v>-0.1223854867863969</v>
       </c>
       <c r="D47">
-        <v>-0.06023048770593469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02533896191160744</v>
+      </c>
+      <c r="E47">
+        <v>0.01934942748002214</v>
+      </c>
+      <c r="F47">
+        <v>0.01130470762584755</v>
+      </c>
+      <c r="G47">
+        <v>-0.04214354495925483</v>
+      </c>
+      <c r="H47">
+        <v>-0.04484884025699042</v>
+      </c>
+      <c r="I47">
+        <v>0.1348091259743546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.005852107348027098</v>
+        <v>0.007250375933731415</v>
       </c>
       <c r="C48">
-        <v>-0.01862327913433622</v>
+        <v>-0.02824402417231098</v>
       </c>
       <c r="D48">
-        <v>-0.0966174097392232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08279662318662298</v>
+      </c>
+      <c r="E48">
+        <v>0.008228716043328782</v>
+      </c>
+      <c r="F48">
+        <v>-0.03959142004241861</v>
+      </c>
+      <c r="G48">
+        <v>0.01463054054610682</v>
+      </c>
+      <c r="H48">
+        <v>-0.0868889604707567</v>
+      </c>
+      <c r="I48">
+        <v>0.02351763784280792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0420590259871934</v>
+        <v>0.01595866035360143</v>
       </c>
       <c r="C50">
-        <v>-0.06260215284084927</v>
+        <v>-0.07500133667340632</v>
       </c>
       <c r="D50">
-        <v>-0.07603373453652225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0504620999048811</v>
+      </c>
+      <c r="E50">
+        <v>-0.0003260190263290953</v>
+      </c>
+      <c r="F50">
+        <v>-0.009720205817299968</v>
+      </c>
+      <c r="G50">
+        <v>0.03046616886526925</v>
+      </c>
+      <c r="H50">
+        <v>-0.03929232695860828</v>
+      </c>
+      <c r="I50">
+        <v>0.1311900370815204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004816852350649308</v>
+        <v>0.00400551084039567</v>
       </c>
       <c r="C51">
-        <v>-0.005817845394170199</v>
+        <v>-0.01760718326241228</v>
       </c>
       <c r="D51">
-        <v>-0.06533283537287819</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07064216721269539</v>
+      </c>
+      <c r="E51">
+        <v>-0.03743278403419318</v>
+      </c>
+      <c r="F51">
+        <v>-0.03529340454452243</v>
+      </c>
+      <c r="G51">
+        <v>0.03835655499088979</v>
+      </c>
+      <c r="H51">
+        <v>-0.04325810311412754</v>
+      </c>
+      <c r="I51">
+        <v>0.003966738406055222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1097449022014709</v>
+        <v>0.06374328613300133</v>
       </c>
       <c r="C53">
-        <v>-0.121811750466894</v>
+        <v>-0.1547579136198892</v>
       </c>
       <c r="D53">
-        <v>-0.02124102496449501</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01218116945837661</v>
+      </c>
+      <c r="E53">
+        <v>0.03484766265941056</v>
+      </c>
+      <c r="F53">
+        <v>-0.04960242006695854</v>
+      </c>
+      <c r="G53">
+        <v>0.009996902570811568</v>
+      </c>
+      <c r="H53">
+        <v>-0.00100511000629945</v>
+      </c>
+      <c r="I53">
+        <v>0.0857218404532822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01733042294825224</v>
+        <v>0.01187856661315088</v>
       </c>
       <c r="C54">
-        <v>-0.02491129640183689</v>
+        <v>-0.04059959117067614</v>
       </c>
       <c r="D54">
-        <v>-0.1100338774496719</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0858301579431224</v>
+      </c>
+      <c r="E54">
+        <v>-0.009459054494756492</v>
+      </c>
+      <c r="F54">
+        <v>0.001670807255232372</v>
+      </c>
+      <c r="G54">
+        <v>0.03043275915843948</v>
+      </c>
+      <c r="H54">
+        <v>-0.09220561761917112</v>
+      </c>
+      <c r="I54">
+        <v>0.05420945554742632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.0967045987209568</v>
+        <v>0.05106605325552691</v>
       </c>
       <c r="C55">
-        <v>-0.1023558813115528</v>
+        <v>-0.1257845722417047</v>
       </c>
       <c r="D55">
-        <v>-0.00782228859241261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02470407545142818</v>
+      </c>
+      <c r="E55">
+        <v>-0.0007732157662558736</v>
+      </c>
+      <c r="F55">
+        <v>-0.01756761003968879</v>
+      </c>
+      <c r="G55">
+        <v>0.01837556453274528</v>
+      </c>
+      <c r="H55">
+        <v>-0.01012727420934285</v>
+      </c>
+      <c r="I55">
+        <v>0.09065698084495519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1368728248660998</v>
+        <v>0.07212422218734031</v>
       </c>
       <c r="C56">
-        <v>-0.1347581095532397</v>
+        <v>-0.1821028001152881</v>
       </c>
       <c r="D56">
-        <v>-0.006672718759910873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02359691227723406</v>
+      </c>
+      <c r="E56">
+        <v>0.03147197392618131</v>
+      </c>
+      <c r="F56">
+        <v>-0.01604409496714274</v>
+      </c>
+      <c r="G56">
+        <v>0.05969738208108235</v>
+      </c>
+      <c r="H56">
+        <v>0.009612242126102632</v>
+      </c>
+      <c r="I56">
+        <v>0.1102829065183804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.004204687915252824</v>
+        <v>0.006130866219378451</v>
       </c>
       <c r="C58">
-        <v>-0.01785081317531087</v>
+        <v>-0.04895333334714303</v>
       </c>
       <c r="D58">
-        <v>-0.2245520381878227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2841089140907955</v>
+      </c>
+      <c r="E58">
+        <v>0.0243098167059885</v>
+      </c>
+      <c r="F58">
+        <v>-0.08758077824152459</v>
+      </c>
+      <c r="G58">
+        <v>0.1134941436575771</v>
+      </c>
+      <c r="H58">
+        <v>0.114375607305334</v>
+      </c>
+      <c r="I58">
+        <v>-0.08533654202365878</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1725101276959101</v>
+        <v>0.2434963756259576</v>
       </c>
       <c r="C59">
-        <v>0.1567882628869267</v>
+        <v>0.08502313751070646</v>
       </c>
       <c r="D59">
-        <v>-0.0517830742977906</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06066845008493552</v>
+      </c>
+      <c r="E59">
+        <v>0.02775427435535848</v>
+      </c>
+      <c r="F59">
+        <v>-0.01306015354925122</v>
+      </c>
+      <c r="G59">
+        <v>-0.00687535887169769</v>
+      </c>
+      <c r="H59">
+        <v>0.02013491506455905</v>
+      </c>
+      <c r="I59">
+        <v>0.03143224111686016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1971758792670936</v>
+        <v>0.1570409650151781</v>
       </c>
       <c r="C60">
-        <v>-0.1004960397817543</v>
+        <v>-0.1681166898157562</v>
       </c>
       <c r="D60">
-        <v>-0.1565409633957732</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0857757363541268</v>
+      </c>
+      <c r="E60">
+        <v>-0.23214080144584</v>
+      </c>
+      <c r="F60">
+        <v>0.1649401613047143</v>
+      </c>
+      <c r="G60">
+        <v>-0.2348956137779409</v>
+      </c>
+      <c r="H60">
+        <v>0.1710029078642855</v>
+      </c>
+      <c r="I60">
+        <v>-0.02855937680484485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03084054617124966</v>
+        <v>0.01541897061599459</v>
       </c>
       <c r="C61">
-        <v>-0.05492231528673278</v>
+        <v>-0.07099649162067199</v>
       </c>
       <c r="D61">
-        <v>-0.1110514589525538</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.08666581487533379</v>
+      </c>
+      <c r="E61">
+        <v>-0.03501324945030713</v>
+      </c>
+      <c r="F61">
+        <v>0.01280586459344822</v>
+      </c>
+      <c r="G61">
+        <v>-0.02146228080539511</v>
+      </c>
+      <c r="H61">
+        <v>-0.09837705620253182</v>
+      </c>
+      <c r="I61">
+        <v>-0.0144383087390235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01081364902034073</v>
+        <v>0.005136960793058026</v>
       </c>
       <c r="C63">
-        <v>-0.02579850260309925</v>
+        <v>-0.0359160125679106</v>
       </c>
       <c r="D63">
-        <v>-0.09625323477712348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07263480717351517</v>
+      </c>
+      <c r="E63">
+        <v>-0.02553521101480507</v>
+      </c>
+      <c r="F63">
+        <v>-0.02311927460047588</v>
+      </c>
+      <c r="G63">
+        <v>0.01643678425890131</v>
+      </c>
+      <c r="H63">
+        <v>-0.06320008233337564</v>
+      </c>
+      <c r="I63">
+        <v>0.007647259403305088</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06127280088401971</v>
+        <v>0.02545955659551729</v>
       </c>
       <c r="C64">
-        <v>-0.08446262637286998</v>
+        <v>-0.1045953276930125</v>
       </c>
       <c r="D64">
-        <v>-0.04495663540395636</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03054094649993511</v>
+      </c>
+      <c r="E64">
+        <v>-0.02657826121225451</v>
+      </c>
+      <c r="F64">
+        <v>-0.025061911432804</v>
+      </c>
+      <c r="G64">
+        <v>-0.03958187724049093</v>
+      </c>
+      <c r="H64">
+        <v>-0.1197156142123884</v>
+      </c>
+      <c r="I64">
+        <v>-0.05592913227204038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02908399950480992</v>
+        <v>0.02489405517622468</v>
       </c>
       <c r="C65">
-        <v>-0.01666580990077676</v>
+        <v>-0.0388401203822727</v>
       </c>
       <c r="D65">
-        <v>-0.1215035405406123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.113033790922208</v>
+      </c>
+      <c r="E65">
+        <v>-0.03920300985958178</v>
+      </c>
+      <c r="F65">
+        <v>-0.006823586760764084</v>
+      </c>
+      <c r="G65">
+        <v>-0.01430758429187419</v>
+      </c>
+      <c r="H65">
+        <v>-0.03312334576458413</v>
+      </c>
+      <c r="I65">
+        <v>0.001529031855899785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02331494412384745</v>
+        <v>0.006379342998281479</v>
       </c>
       <c r="C66">
-        <v>-0.06533802849892725</v>
+        <v>-0.08998273992155552</v>
       </c>
       <c r="D66">
-        <v>-0.1223025000526389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.131291261029772</v>
+      </c>
+      <c r="E66">
+        <v>-0.03366147569872249</v>
+      </c>
+      <c r="F66">
+        <v>0.0137178886366271</v>
+      </c>
+      <c r="G66">
+        <v>0.005482641143812261</v>
+      </c>
+      <c r="H66">
+        <v>-0.05818445443406418</v>
+      </c>
+      <c r="I66">
+        <v>-0.06619725006843914</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03023778571617649</v>
+        <v>0.02754707141304293</v>
       </c>
       <c r="C67">
-        <v>-0.01900295196962948</v>
+        <v>-0.02799436478649684</v>
       </c>
       <c r="D67">
-        <v>-0.04475511222523192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03375722390216127</v>
+      </c>
+      <c r="E67">
+        <v>-0.001558698279774568</v>
+      </c>
+      <c r="F67">
+        <v>0.0294568167702013</v>
+      </c>
+      <c r="G67">
+        <v>0.01778422856198265</v>
+      </c>
+      <c r="H67">
+        <v>-0.06289760145754859</v>
+      </c>
+      <c r="I67">
+        <v>0.03065532966079483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2077094234768119</v>
+        <v>0.2693933837562789</v>
       </c>
       <c r="C68">
-        <v>0.1718111356076444</v>
+        <v>0.08354863475410194</v>
       </c>
       <c r="D68">
-        <v>-0.03681052040366885</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03540383142218946</v>
+      </c>
+      <c r="E68">
+        <v>-0.007217333060375036</v>
+      </c>
+      <c r="F68">
+        <v>-0.02878616994109316</v>
+      </c>
+      <c r="G68">
+        <v>0.06185355466696611</v>
+      </c>
+      <c r="H68">
+        <v>0.04814618225867508</v>
+      </c>
+      <c r="I68">
+        <v>0.1123871717888952</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06200962291797018</v>
+        <v>0.02540420177074586</v>
       </c>
       <c r="C69">
-        <v>-0.1168112939190678</v>
+        <v>-0.1201889770729046</v>
       </c>
       <c r="D69">
-        <v>-0.08425393921442874</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03873338085266251</v>
+      </c>
+      <c r="E69">
+        <v>-0.001617090775262307</v>
+      </c>
+      <c r="F69">
+        <v>0.01251518202459413</v>
+      </c>
+      <c r="G69">
+        <v>-0.02623242751962986</v>
+      </c>
+      <c r="H69">
+        <v>-0.045700752880802</v>
+      </c>
+      <c r="I69">
+        <v>0.09656685134991151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2106866411740519</v>
+        <v>0.268560279362636</v>
       </c>
       <c r="C71">
-        <v>0.1870071154584101</v>
+        <v>0.09822582956527397</v>
       </c>
       <c r="D71">
-        <v>-0.03230753666389308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0221242925009234</v>
+      </c>
+      <c r="E71">
+        <v>0.00892899124436205</v>
+      </c>
+      <c r="F71">
+        <v>-0.01785841307666612</v>
+      </c>
+      <c r="G71">
+        <v>0.04408467151840971</v>
+      </c>
+      <c r="H71">
+        <v>-0.01003792490572556</v>
+      </c>
+      <c r="I71">
+        <v>0.1667733416922486</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1051729467800092</v>
+        <v>0.0631814055804279</v>
       </c>
       <c r="C72">
-        <v>-0.07755490831576409</v>
+        <v>-0.1214069181419263</v>
       </c>
       <c r="D72">
-        <v>-0.09277850469315055</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06292151174116932</v>
+      </c>
+      <c r="E72">
+        <v>-0.0916622803667415</v>
+      </c>
+      <c r="F72">
+        <v>0.0168548632380791</v>
+      </c>
+      <c r="G72">
+        <v>-0.02985976050330317</v>
+      </c>
+      <c r="H72">
+        <v>-0.06476752624006214</v>
+      </c>
+      <c r="I72">
+        <v>-0.04644698929220588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1762091966087028</v>
+        <v>0.1411676580067534</v>
       </c>
       <c r="C73">
-        <v>-0.06040404963286312</v>
+        <v>-0.1335034840275751</v>
       </c>
       <c r="D73">
-        <v>-0.2059748987157929</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09177020781253745</v>
+      </c>
+      <c r="E73">
+        <v>-0.3892624006863039</v>
+      </c>
+      <c r="F73">
+        <v>0.2504599244598752</v>
+      </c>
+      <c r="G73">
+        <v>-0.4434399991036166</v>
+      </c>
+      <c r="H73">
+        <v>0.130456843577423</v>
+      </c>
+      <c r="I73">
+        <v>-0.06540564057375538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1086629711154031</v>
+        <v>0.05843979440902356</v>
       </c>
       <c r="C74">
-        <v>-0.1113868221334394</v>
+        <v>-0.1412706091227039</v>
       </c>
       <c r="D74">
-        <v>0.0202556384927434</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0406073729386013</v>
+      </c>
+      <c r="E74">
+        <v>0.01330569321483597</v>
+      </c>
+      <c r="F74">
+        <v>-0.0473906521703495</v>
+      </c>
+      <c r="G74">
+        <v>0.006357253230536184</v>
+      </c>
+      <c r="H74">
+        <v>0.007959045266640492</v>
+      </c>
+      <c r="I74">
+        <v>0.1129996047938568</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2378999745730118</v>
+        <v>0.1318686496247551</v>
       </c>
       <c r="C75">
-        <v>-0.1931775636552866</v>
+        <v>-0.2626017335869306</v>
       </c>
       <c r="D75">
-        <v>0.1047269917142108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1361041712036758</v>
+      </c>
+      <c r="E75">
+        <v>0.08718626043409874</v>
+      </c>
+      <c r="F75">
+        <v>0.03396942201342673</v>
+      </c>
+      <c r="G75">
+        <v>0.09970744208825422</v>
+      </c>
+      <c r="H75">
+        <v>0.01320310955747989</v>
+      </c>
+      <c r="I75">
+        <v>0.08713703615430574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.144945358173099</v>
+        <v>0.0744960676245266</v>
       </c>
       <c r="C76">
-        <v>-0.1367975374717557</v>
+        <v>-0.1809496723051473</v>
       </c>
       <c r="D76">
-        <v>-0.01789434713798038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03017256306907463</v>
+      </c>
+      <c r="E76">
+        <v>0.02860922674389005</v>
+      </c>
+      <c r="F76">
+        <v>-0.007441008026829397</v>
+      </c>
+      <c r="G76">
+        <v>0.05462069097960248</v>
+      </c>
+      <c r="H76">
+        <v>-0.0322885750008207</v>
+      </c>
+      <c r="I76">
+        <v>0.1125071796683912</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.0225317854753214</v>
+        <v>0.03182674037462247</v>
       </c>
       <c r="C77">
-        <v>-0.08074531956656042</v>
+        <v>-0.09333738310897571</v>
       </c>
       <c r="D77">
-        <v>-0.08202866936716222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2514094967493901</v>
+      </c>
+      <c r="E77">
+        <v>0.7600587800569442</v>
+      </c>
+      <c r="F77">
+        <v>0.3315057845702742</v>
+      </c>
+      <c r="G77">
+        <v>-0.3223158551039214</v>
+      </c>
+      <c r="H77">
+        <v>0.2296418620783971</v>
+      </c>
+      <c r="I77">
+        <v>0.04521103479439904</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.0253226642884541</v>
+        <v>0.01655408023517948</v>
       </c>
       <c r="C78">
-        <v>-0.07190547841203901</v>
+        <v>-0.08704346117305473</v>
       </c>
       <c r="D78">
-        <v>-0.1517033721200528</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1404708511284216</v>
+      </c>
+      <c r="E78">
+        <v>-0.0443712722041068</v>
+      </c>
+      <c r="F78">
+        <v>-0.04468991748955633</v>
+      </c>
+      <c r="G78">
+        <v>0.03847993002161131</v>
+      </c>
+      <c r="H78">
+        <v>-0.02046903641770642</v>
+      </c>
+      <c r="I78">
+        <v>0.01910405315074629</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08470335790631026</v>
+        <v>0.04084023809600514</v>
       </c>
       <c r="C79">
-        <v>-0.1544879022127821</v>
+        <v>-0.1769612120654825</v>
       </c>
       <c r="D79">
-        <v>0.09211985492833714</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06523811264165033</v>
+      </c>
+      <c r="E79">
+        <v>0.1094549439641715</v>
+      </c>
+      <c r="F79">
+        <v>-0.8051018829348355</v>
+      </c>
+      <c r="G79">
+        <v>-0.406783421186259</v>
+      </c>
+      <c r="H79">
+        <v>0.2009217593024159</v>
+      </c>
+      <c r="I79">
+        <v>-0.1484140923681177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.006881777855576712</v>
+        <v>0.0009364398036169068</v>
       </c>
       <c r="C80">
-        <v>-0.04822876591547267</v>
+        <v>-0.04854637317659841</v>
       </c>
       <c r="D80">
-        <v>-0.04830618899654646</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0451835393150861</v>
+      </c>
+      <c r="E80">
+        <v>-0.02026979037607332</v>
+      </c>
+      <c r="F80">
+        <v>-0.008792125374559076</v>
+      </c>
+      <c r="G80">
+        <v>0.04233055071415433</v>
+      </c>
+      <c r="H80">
+        <v>-0.01883700321995601</v>
+      </c>
+      <c r="I80">
+        <v>0.05750799648478793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1262277527190702</v>
+        <v>0.05974492445920063</v>
       </c>
       <c r="C81">
-        <v>-0.1289967861295715</v>
+        <v>-0.1640804997943612</v>
       </c>
       <c r="D81">
-        <v>0.06121710325622427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07758016840883236</v>
+      </c>
+      <c r="E81">
+        <v>0.06979863603630569</v>
+      </c>
+      <c r="F81">
+        <v>-0.04478559761184593</v>
+      </c>
+      <c r="G81">
+        <v>0.05263512385239282</v>
+      </c>
+      <c r="H81">
+        <v>-0.05896921731499328</v>
+      </c>
+      <c r="I81">
+        <v>0.128582347764638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2554328995178319</v>
+        <v>0.1162593963919823</v>
       </c>
       <c r="C82">
-        <v>-0.2905237435295241</v>
+        <v>-0.3242790345885834</v>
       </c>
       <c r="D82">
-        <v>0.2129688160096974</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2307843683897656</v>
+      </c>
+      <c r="E82">
+        <v>0.04294432461457073</v>
+      </c>
+      <c r="F82">
+        <v>0.1219110832165821</v>
+      </c>
+      <c r="G82">
+        <v>0.07214301724110368</v>
+      </c>
+      <c r="H82">
+        <v>-0.08581142619528642</v>
+      </c>
+      <c r="I82">
+        <v>0.04186938610642577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004327630941201832</v>
+        <v>-0.00725734103335237</v>
       </c>
       <c r="C83">
-        <v>-0.0544502851295335</v>
+        <v>-0.03547814618973991</v>
       </c>
       <c r="D83">
-        <v>-0.02763436947619449</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04576386115466924</v>
+      </c>
+      <c r="E83">
+        <v>0.0939598464821496</v>
+      </c>
+      <c r="F83">
+        <v>-0.02912742493031897</v>
+      </c>
+      <c r="G83">
+        <v>0.05709766502378115</v>
+      </c>
+      <c r="H83">
+        <v>-0.05382136534489811</v>
+      </c>
+      <c r="I83">
+        <v>0.1147868398489442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0002024566706976173</v>
+        <v>-0.001124632850721777</v>
       </c>
       <c r="C84">
-        <v>-0.0001947029514453282</v>
+        <v>-0.01554586683828509</v>
       </c>
       <c r="D84">
-        <v>-0.0008358812884556646</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03839370000236324</v>
+      </c>
+      <c r="E84">
+        <v>0.00883132564553938</v>
+      </c>
+      <c r="F84">
+        <v>-0.01354632290404503</v>
+      </c>
+      <c r="G84">
+        <v>0.0431669667490531</v>
+      </c>
+      <c r="H84">
+        <v>0.01086497293485111</v>
+      </c>
+      <c r="I84">
+        <v>-0.03645942304022533</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1498921259655766</v>
+        <v>0.07462937868728974</v>
       </c>
       <c r="C85">
-        <v>-0.1356476405885267</v>
+        <v>-0.1842261300012066</v>
       </c>
       <c r="D85">
-        <v>0.04592333447096608</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09183552087591433</v>
+      </c>
+      <c r="E85">
+        <v>0.005171302915609998</v>
+      </c>
+      <c r="F85">
+        <v>-0.07746510872211669</v>
+      </c>
+      <c r="G85">
+        <v>0.03937900875758435</v>
+      </c>
+      <c r="H85">
+        <v>-0.008784394692380147</v>
+      </c>
+      <c r="I85">
+        <v>0.09595932199289785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01114825748051754</v>
+        <v>0.01023465915362244</v>
       </c>
       <c r="C86">
-        <v>-0.01823141741449019</v>
+        <v>-0.03063844010882211</v>
       </c>
       <c r="D86">
-        <v>-0.08836769834760204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1108074030822953</v>
+      </c>
+      <c r="E86">
+        <v>0.04278548409637026</v>
+      </c>
+      <c r="F86">
+        <v>0.01312092848634699</v>
+      </c>
+      <c r="G86">
+        <v>-0.02255276448490098</v>
+      </c>
+      <c r="H86">
+        <v>-0.01019754453842041</v>
+      </c>
+      <c r="I86">
+        <v>0.0761355447491301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01444925601428653</v>
+        <v>0.009586014760303798</v>
       </c>
       <c r="C87">
-        <v>-0.03354610842164925</v>
+        <v>-0.05616161315724008</v>
       </c>
       <c r="D87">
-        <v>-0.1242075654109263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1446049534936121</v>
+      </c>
+      <c r="E87">
+        <v>0.01170289706859413</v>
+      </c>
+      <c r="F87">
+        <v>-0.03761941649266984</v>
+      </c>
+      <c r="G87">
+        <v>0.06668123080824767</v>
+      </c>
+      <c r="H87">
+        <v>-0.01358821678706336</v>
+      </c>
+      <c r="I87">
+        <v>-0.04699182880809757</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06072832426062876</v>
+        <v>0.03416362965619222</v>
       </c>
       <c r="C88">
-        <v>-0.04911435873258803</v>
+        <v>-0.06946983952752969</v>
       </c>
       <c r="D88">
-        <v>-0.04353787618492527</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01035935940289498</v>
+      </c>
+      <c r="E88">
+        <v>-0.01040304902364652</v>
+      </c>
+      <c r="F88">
+        <v>-0.02621769484088691</v>
+      </c>
+      <c r="G88">
+        <v>0.0108018994227488</v>
+      </c>
+      <c r="H88">
+        <v>-0.04240543934895703</v>
+      </c>
+      <c r="I88">
+        <v>0.05027424297718117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.311438942821872</v>
+        <v>0.4056217225095536</v>
       </c>
       <c r="C89">
-        <v>0.3358111794392077</v>
+        <v>0.1858723264729089</v>
       </c>
       <c r="D89">
-        <v>-0.0389980078320949</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03177327381340007</v>
+      </c>
+      <c r="E89">
+        <v>0.01896956063035032</v>
+      </c>
+      <c r="F89">
+        <v>-0.06429082813739838</v>
+      </c>
+      <c r="G89">
+        <v>0.04191377310412561</v>
+      </c>
+      <c r="H89">
+        <v>-0.1333558094824762</v>
+      </c>
+      <c r="I89">
+        <v>-0.3638885261687803</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2513515776357723</v>
+        <v>0.3117849065001445</v>
       </c>
       <c r="C90">
-        <v>0.248434505270678</v>
+        <v>0.1246619656890674</v>
       </c>
       <c r="D90">
-        <v>-0.03611435509629431</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03353981217821622</v>
+      </c>
+      <c r="E90">
+        <v>0.01826501444361875</v>
+      </c>
+      <c r="F90">
+        <v>0.01689735397553734</v>
+      </c>
+      <c r="G90">
+        <v>0.06802630566483286</v>
+      </c>
+      <c r="H90">
+        <v>0.02133173449560384</v>
+      </c>
+      <c r="I90">
+        <v>0.08109507153047066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1577295204131139</v>
+        <v>0.0805085441937631</v>
       </c>
       <c r="C91">
-        <v>-0.1774800530993406</v>
+        <v>-0.2047914752305321</v>
       </c>
       <c r="D91">
-        <v>0.1015509282973678</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1122367999976201</v>
+      </c>
+      <c r="E91">
+        <v>0.07168921663081775</v>
+      </c>
+      <c r="F91">
+        <v>-0.07671934058421527</v>
+      </c>
+      <c r="G91">
+        <v>0.01913834923900442</v>
+      </c>
+      <c r="H91">
+        <v>0.0006156001184329666</v>
+      </c>
+      <c r="I91">
+        <v>0.1239357876907859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2248585239053329</v>
+        <v>0.322171282668204</v>
       </c>
       <c r="C92">
-        <v>0.2581856601309919</v>
+        <v>0.1603899175685075</v>
       </c>
       <c r="D92">
-        <v>0.04788182371772458</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006753972771090389</v>
+      </c>
+      <c r="E92">
+        <v>0.08515770759951743</v>
+      </c>
+      <c r="F92">
+        <v>-0.0242582725881501</v>
+      </c>
+      <c r="G92">
+        <v>0.03657312805807415</v>
+      </c>
+      <c r="H92">
+        <v>-0.02852489043552166</v>
+      </c>
+      <c r="I92">
+        <v>-0.1620803111473947</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2725857515098178</v>
+        <v>0.3295777008879227</v>
       </c>
       <c r="C93">
-        <v>0.2561355126396661</v>
+        <v>0.1334968907640779</v>
       </c>
       <c r="D93">
-        <v>-0.01320883624078064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01586709918465011</v>
+      </c>
+      <c r="E93">
+        <v>-0.02418787173534533</v>
+      </c>
+      <c r="F93">
+        <v>-0.01435284829797441</v>
+      </c>
+      <c r="G93">
+        <v>-0.01062458695577401</v>
+      </c>
+      <c r="H93">
+        <v>-0.005738064021002108</v>
+      </c>
+      <c r="I93">
+        <v>0.1036909236926347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.304016132657977</v>
+        <v>0.1577217403021265</v>
       </c>
       <c r="C94">
-        <v>-0.2585517366888611</v>
+        <v>-0.3491589215106641</v>
       </c>
       <c r="D94">
-        <v>0.3685247342076149</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3474354561888834</v>
+      </c>
+      <c r="E94">
+        <v>0.04092916897984293</v>
+      </c>
+      <c r="F94">
+        <v>0.1141828566650617</v>
+      </c>
+      <c r="G94">
+        <v>0.2927922415924242</v>
+      </c>
+      <c r="H94">
+        <v>0.08487518204556906</v>
+      </c>
+      <c r="I94">
+        <v>-0.4079911919857129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.0254098780273682</v>
+        <v>0.02466156266358635</v>
       </c>
       <c r="C95">
-        <v>-0.03877667164531349</v>
+        <v>-0.06334167656311004</v>
       </c>
       <c r="D95">
-        <v>-0.08055602236748552</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1107887133490151</v>
+      </c>
+      <c r="E95">
+        <v>0.2035000992402626</v>
+      </c>
+      <c r="F95">
+        <v>0.07401078462895938</v>
+      </c>
+      <c r="G95">
+        <v>-0.1010931271835115</v>
+      </c>
+      <c r="H95">
+        <v>-0.3923982126048057</v>
+      </c>
+      <c r="I95">
+        <v>-0.5015608559504966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0003950315084279361</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.000158291432496416</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-6.847635128328951e-05</v>
+      </c>
+      <c r="E97">
+        <v>-0.0006372452294322208</v>
+      </c>
+      <c r="F97">
+        <v>0.001648547021290806</v>
+      </c>
+      <c r="G97">
+        <v>-0.001151474772092413</v>
+      </c>
+      <c r="H97">
+        <v>0.0005203380799447291</v>
+      </c>
+      <c r="I97">
+        <v>-0.001059487767211656</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1480761219078546</v>
+        <v>0.1192035060305719</v>
       </c>
       <c r="C98">
-        <v>-0.07423161881434352</v>
+        <v>-0.1372761482705093</v>
       </c>
       <c r="D98">
-        <v>-0.1028860056300065</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05722848251016399</v>
+      </c>
+      <c r="E98">
+        <v>-0.2684747184363941</v>
+      </c>
+      <c r="F98">
+        <v>0.16959538952226</v>
+      </c>
+      <c r="G98">
+        <v>-0.2635031042398783</v>
+      </c>
+      <c r="H98">
+        <v>0.1459253381416652</v>
+      </c>
+      <c r="I98">
+        <v>-0.03640193194372109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001194582766673599</v>
+        <v>0.001615959155509237</v>
       </c>
       <c r="C101">
-        <v>-0.02154032165914986</v>
+        <v>-0.03042473044172033</v>
       </c>
       <c r="D101">
-        <v>-0.1037673574306115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0980365095954957</v>
+      </c>
+      <c r="E101">
+        <v>-0.03830162535458026</v>
+      </c>
+      <c r="F101">
+        <v>-0.02990646799027786</v>
+      </c>
+      <c r="G101">
+        <v>0.009121046276312916</v>
+      </c>
+      <c r="H101">
+        <v>-0.1213353348512719</v>
+      </c>
+      <c r="I101">
+        <v>0.02260510503103353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1129770741682573</v>
+        <v>0.04425978513067277</v>
       </c>
       <c r="C102">
-        <v>-0.1476594055535781</v>
+        <v>-0.1516528492670702</v>
       </c>
       <c r="D102">
-        <v>0.0743897333211959</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09542808473899049</v>
+      </c>
+      <c r="E102">
+        <v>0.03170736416571207</v>
+      </c>
+      <c r="F102">
+        <v>0.06445903202764204</v>
+      </c>
+      <c r="G102">
+        <v>-0.003165477499048946</v>
+      </c>
+      <c r="H102">
+        <v>-0.05043978536448363</v>
+      </c>
+      <c r="I102">
+        <v>0.02216447127585009</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
